--- a/venv/model/Dataset/Score.xlsx
+++ b/venv/model/Dataset/Score.xlsx
@@ -962,7 +962,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>65.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="123">
@@ -1197,7 +1197,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170">
@@ -1622,7 +1622,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>65.5</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="255">
@@ -2267,7 +2267,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>77.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="384">
@@ -2807,7 +2807,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="492">
@@ -2972,7 +2972,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>77.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="525">
@@ -3322,7 +3322,7 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>88.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="595">
@@ -3362,7 +3362,7 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="603">
@@ -3432,7 +3432,7 @@
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>78.5</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="617">
@@ -3937,7 +3937,7 @@
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="718">
@@ -4162,7 +4162,7 @@
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>66.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="763">
@@ -4317,7 +4317,7 @@
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>66.5</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="794">
@@ -4387,7 +4387,7 @@
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>88.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="808">
@@ -5757,7 +5757,7 @@
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1082">
@@ -5937,7 +5937,7 @@
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>72.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="1118">
@@ -6072,7 +6072,7 @@
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1145">
@@ -6157,7 +6157,7 @@
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>61.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="1162">
@@ -6367,7 +6367,7 @@
     </row>
     <row r="1203">
       <c r="A1203" t="n">
-        <v>75.5</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="1204">
@@ -6907,7 +6907,7 @@
     </row>
     <row r="1311">
       <c r="A1311" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1312">
@@ -7312,12 +7312,12 @@
     </row>
     <row r="1392">
       <c r="A1392" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1394">
@@ -7422,7 +7422,7 @@
     </row>
     <row r="1414">
       <c r="A1414" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1415">
@@ -8157,7 +8157,7 @@
     </row>
     <row r="1561">
       <c r="A1561" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1562">
@@ -8212,7 +8212,7 @@
     </row>
     <row r="1572">
       <c r="A1572" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1573">
@@ -8312,7 +8312,7 @@
     </row>
     <row r="1592">
       <c r="A1592" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1593">
@@ -8732,7 +8732,7 @@
     </row>
     <row r="1676">
       <c r="A1676" t="n">
-        <v>59.5</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="1677">
@@ -8862,7 +8862,7 @@
     </row>
     <row r="1702">
       <c r="A1702" t="n">
-        <v>50.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="1703">
@@ -9057,7 +9057,7 @@
     </row>
     <row r="1741">
       <c r="A1741" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1742">
@@ -9117,7 +9117,7 @@
     </row>
     <row r="1753">
       <c r="A1753" t="n">
-        <v>55.5</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="1754">
@@ -9142,7 +9142,7 @@
     </row>
     <row r="1758">
       <c r="A1758" t="n">
-        <v>77.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="1759">
@@ -13377,7 +13377,7 @@
     </row>
     <row r="2605">
       <c r="A2605" t="n">
-        <v>60.5</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="2606">
@@ -13917,7 +13917,7 @@
     </row>
     <row r="2713">
       <c r="A2713" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2714">
@@ -13992,7 +13992,7 @@
     </row>
     <row r="2728">
       <c r="A2728" t="n">
-        <v>55.5</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="2729">
@@ -14532,7 +14532,7 @@
     </row>
     <row r="2836">
       <c r="A2836" t="n">
-        <v>55.5</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="2837">
@@ -15377,7 +15377,7 @@
     </row>
     <row r="3005">
       <c r="A3005" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3006">
@@ -15452,7 +15452,7 @@
     </row>
     <row r="3020">
       <c r="A3020" t="n">
-        <v>84.5</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="3021">
@@ -15687,7 +15687,7 @@
     </row>
     <row r="3067">
       <c r="A3067" t="n">
-        <v>89.5</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="3068">
@@ -15887,7 +15887,7 @@
     </row>
     <row r="3107">
       <c r="A3107" t="n">
-        <v>59.5</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="3108">
@@ -17582,7 +17582,7 @@
     </row>
     <row r="3446">
       <c r="A3446" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3447">
@@ -21602,7 +21602,7 @@
     </row>
     <row r="4250">
       <c r="A4250" t="n">
-        <v>98.5</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="4251">
@@ -21962,7 +21962,7 @@
     </row>
     <row r="4322">
       <c r="A4322" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4323">
@@ -22432,7 +22432,7 @@
     </row>
     <row r="4416">
       <c r="A4416" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4417">
@@ -23737,7 +23737,7 @@
     </row>
     <row r="4677">
       <c r="A4677" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4678">
@@ -26312,7 +26312,7 @@
     </row>
     <row r="5192">
       <c r="A5192" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5193">
@@ -26632,7 +26632,7 @@
     </row>
     <row r="5256">
       <c r="A5256" t="n">
-        <v>82.5</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="5257">
@@ -54052,7 +54052,7 @@
     </row>
     <row r="10740">
       <c r="A10740" t="n">
-        <v>86.5</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="10741">
@@ -54092,7 +54092,7 @@
     </row>
     <row r="10748">
       <c r="A10748" t="n">
-        <v>93.5</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="10749">
@@ -54112,7 +54112,7 @@
     </row>
     <row r="10752">
       <c r="A10752" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10753">
@@ -54312,7 +54312,7 @@
     </row>
     <row r="10792">
       <c r="A10792" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10793">
@@ -54327,7 +54327,7 @@
     </row>
     <row r="10795">
       <c r="A10795" t="n">
-        <v>80.5</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="10796">
@@ -54552,7 +54552,7 @@
     </row>
     <row r="10840">
       <c r="A10840" t="n">
-        <v>69.5</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="10841">
@@ -54582,7 +54582,7 @@
     </row>
     <row r="10846">
       <c r="A10846" t="n">
-        <v>94.5</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="10847">
@@ -54927,7 +54927,7 @@
     </row>
     <row r="10915">
       <c r="A10915" t="n">
-        <v>84.5</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="10916">
@@ -54992,7 +54992,7 @@
     </row>
     <row r="10928">
       <c r="A10928" t="n">
-        <v>51.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="10929">
@@ -55287,7 +55287,7 @@
     </row>
     <row r="10987">
       <c r="A10987" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10988">
@@ -55442,7 +55442,7 @@
     </row>
     <row r="11018">
       <c r="A11018" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11019">
@@ -55457,7 +55457,7 @@
     </row>
     <row r="11021">
       <c r="A11021" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11022">
@@ -55572,7 +55572,7 @@
     </row>
     <row r="11044">
       <c r="A11044" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11045">
@@ -55702,7 +55702,7 @@
     </row>
     <row r="11070">
       <c r="A11070" t="n">
-        <v>89.5</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="11071">
@@ -56147,7 +56147,7 @@
     </row>
     <row r="11159">
       <c r="A11159" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11160">
@@ -56192,7 +56192,7 @@
     </row>
     <row r="11168">
       <c r="A11168" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11169">
@@ -56292,7 +56292,7 @@
     </row>
     <row r="11188">
       <c r="A11188" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11189">
@@ -56562,7 +56562,7 @@
     </row>
     <row r="11242">
       <c r="A11242" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11243">
@@ -56867,7 +56867,7 @@
     </row>
     <row r="11303">
       <c r="A11303" t="n">
-        <v>69.5</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="11304">
@@ -56942,7 +56942,7 @@
     </row>
     <row r="11318">
       <c r="A11318" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11319">
@@ -57092,7 +57092,7 @@
     </row>
     <row r="11348">
       <c r="A11348" t="n">
-        <v>74.5</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="11349">
@@ -57132,7 +57132,7 @@
     </row>
     <row r="11356">
       <c r="A11356" t="n">
-        <v>66.5</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="11357">
@@ -57197,7 +57197,7 @@
     </row>
     <row r="11369">
       <c r="A11369" t="n">
-        <v>80.5</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="11370">
@@ -57267,7 +57267,7 @@
     </row>
     <row r="11383">
       <c r="A11383" t="n">
-        <v>92.5</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="11384">
@@ -57362,7 +57362,7 @@
     </row>
     <row r="11402">
       <c r="A11402" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11403">
@@ -57507,7 +57507,7 @@
     </row>
     <row r="11431">
       <c r="A11431" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11432">
@@ -57547,7 +57547,7 @@
     </row>
     <row r="11439">
       <c r="A11439" t="n">
-        <v>55.5</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="11440">
@@ -57827,7 +57827,7 @@
     </row>
     <row r="11495">
       <c r="A11495" t="n">
-        <v>72.5</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="11496">
@@ -58072,7 +58072,7 @@
     </row>
     <row r="11544">
       <c r="A11544" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11545">
@@ -58417,7 +58417,7 @@
     </row>
     <row r="11613">
       <c r="A11613" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11614">
@@ -58627,7 +58627,7 @@
     </row>
     <row r="11655">
       <c r="A11655" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11656">
@@ -58732,7 +58732,7 @@
     </row>
     <row r="11676">
       <c r="A11676" t="n">
-        <v>62.5</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="11677">
@@ -58822,7 +58822,7 @@
     </row>
     <row r="11694">
       <c r="A11694" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11695">
@@ -58907,7 +58907,7 @@
     </row>
     <row r="11711">
       <c r="A11711" t="n">
-        <v>71.5</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="11712">
@@ -58927,12 +58927,12 @@
     </row>
     <row r="11715">
       <c r="A11715" t="n">
-        <v>65.5</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="11716">
       <c r="A11716" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11717">
@@ -58972,7 +58972,7 @@
     </row>
     <row r="11724">
       <c r="A11724" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11725">
@@ -58997,7 +58997,7 @@
     </row>
     <row r="11729">
       <c r="A11729" t="n">
-        <v>86.5</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="11730">
@@ -59147,7 +59147,7 @@
     </row>
     <row r="11759">
       <c r="A11759" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11760">
@@ -59387,7 +59387,7 @@
     </row>
     <row r="11807">
       <c r="A11807" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11808">
@@ -59437,7 +59437,7 @@
     </row>
     <row r="11817">
       <c r="A11817" t="n">
-        <v>95.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="11818">
@@ -59502,12 +59502,12 @@
     </row>
     <row r="11830">
       <c r="A11830" t="n">
-        <v>84.5</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="11831">
       <c r="A11831" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11832">
@@ -59727,7 +59727,7 @@
     </row>
     <row r="11875">
       <c r="A11875" t="n">
-        <v>91.5</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="11876">
@@ -59922,7 +59922,7 @@
     </row>
     <row r="11914">
       <c r="A11914" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11915">
@@ -59942,7 +59942,7 @@
     </row>
     <row r="11918">
       <c r="A11918" t="n">
-        <v>82.5</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="11919">
@@ -60147,7 +60147,7 @@
     </row>
     <row r="11959">
       <c r="A11959" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11960">
@@ -60267,7 +60267,7 @@
     </row>
     <row r="11983">
       <c r="A11983" t="n">
-        <v>92.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="11984">
@@ -60402,7 +60402,7 @@
     </row>
     <row r="12010">
       <c r="A12010" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12011">
@@ -60487,7 +60487,7 @@
     </row>
     <row r="12027">
       <c r="A12027" t="n">
-        <v>70.5</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="12028">
@@ -60517,7 +60517,7 @@
     </row>
     <row r="12033">
       <c r="A12033" t="n">
-        <v>87.5</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="12034">
@@ -60812,7 +60812,7 @@
     </row>
     <row r="12092">
       <c r="A12092" t="n">
-        <v>95.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="12093">
@@ -60877,7 +60877,7 @@
     </row>
     <row r="12105">
       <c r="A12105" t="n">
-        <v>88.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="12106">
@@ -60952,7 +60952,7 @@
     </row>
     <row r="12120">
       <c r="A12120" t="n">
-        <v>66.5</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="12121">
@@ -61017,7 +61017,7 @@
     </row>
     <row r="12133">
       <c r="A12133" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12134">
@@ -61092,7 +61092,7 @@
     </row>
     <row r="12148">
       <c r="A12148" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12149">
@@ -61112,7 +61112,7 @@
     </row>
     <row r="12152">
       <c r="A12152" t="n">
-        <v>76.5</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="12153">
@@ -61322,7 +61322,7 @@
     </row>
     <row r="12194">
       <c r="A12194" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12195">
@@ -61537,7 +61537,7 @@
     </row>
     <row r="12237">
       <c r="A12237" t="n">
-        <v>92.5</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="12238">
@@ -63262,7 +63262,7 @@
     </row>
     <row r="12582">
       <c r="A12582" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12583">
@@ -63337,7 +63337,7 @@
     </row>
     <row r="12597">
       <c r="A12597" t="n">
-        <v>91.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="12598">
@@ -63752,7 +63752,7 @@
     </row>
     <row r="12680">
       <c r="A12680" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12681">
